--- a/_Shared Resources/TopSky/MSAW/TopSkyMSAW Coding Tool.xlsx
+++ b/_Shared Resources/TopSky/MSAW/TopSkyMSAW Coding Tool.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATC Control\0 GitHub\Sector-Files\_Shared Resources\TopSky\MSAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{490C084F-7DFA-4096-8EA9-D9EB2BBF7200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BD30FE-13B9-4FA7-95E4-E43A0B5EA95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{38210610-A239-4B7F-93EB-C9D3CC6058FF}"/>
+    <workbookView xWindow="28680" yWindow="-1785" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{38210610-A239-4B7F-93EB-C9D3CC6058FF}"/>
   </bookViews>
   <sheets>
     <sheet name="FCCC" sheetId="1" r:id="rId1"/>
+    <sheet name="FIMP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>N007</t>
   </si>
@@ -92,6 +93,78 @@
   </si>
   <si>
     <t>S005</t>
+  </si>
+  <si>
+    <t>South Edge</t>
+  </si>
+  <si>
+    <t>West Edge</t>
+  </si>
+  <si>
+    <t>S011</t>
+  </si>
+  <si>
+    <t>E055</t>
+  </si>
+  <si>
+    <t>MSA Start</t>
+  </si>
+  <si>
+    <t>E056</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
+    <t>S013</t>
+  </si>
+  <si>
+    <t>S014</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>S016</t>
+  </si>
+  <si>
+    <t>S017</t>
+  </si>
+  <si>
+    <t>S018</t>
+  </si>
+  <si>
+    <t>S019</t>
+  </si>
+  <si>
+    <t>S020</t>
+  </si>
+  <si>
+    <t>S021</t>
+  </si>
+  <si>
+    <t>S022</t>
+  </si>
+  <si>
+    <t>S023</t>
+  </si>
+  <si>
+    <t>S024</t>
+  </si>
+  <si>
+    <t>S025</t>
+  </si>
+  <si>
+    <t>S026</t>
+  </si>
+  <si>
+    <t>S027</t>
+  </si>
+  <si>
+    <t>S028</t>
+  </si>
+  <si>
+    <t>S029</t>
   </si>
 </sst>
 </file>
@@ -458,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872E7D4A-24F3-4885-A9DB-A8BEC776D34A}">
   <dimension ref="A3:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,4 +1232,530 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A78920B-173E-4272-A085-64BC10408654}">
+  <dimension ref="A2:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="str">
+        <f t="shared" ref="A3:A15" si="0">"L:"&amp;D3&amp;".00.00:"&amp;E3&amp;".00.00:1:1:"&amp;C3&amp;":"&amp;F3&amp;"00:"&amp;G3&amp;"00:"&amp;H3&amp;"00:"&amp;I3&amp;"00:"&amp;J3&amp;"00:"&amp;K3&amp;"00:"&amp;L3&amp;"00:"&amp;M3&amp;"00:"&amp;N3&amp;"00:"&amp;O3&amp;"00:"&amp;P3&amp;"00:"&amp;Q3&amp;"00:"&amp;R3&amp;"00:"&amp;S3&amp;"00:"&amp;T3&amp;"00:"&amp;U3&amp;"00:"&amp;V3&amp;"00:"&amp;W3&amp;"00:"&amp;X3&amp;"00:"&amp;Y3&amp;"00"</f>
+        <v>L:S011.00.00:E055.00.00:1:1:4:1300:1300:1300:1300:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C3">
+        <f>COUNT(F3:AC3)</f>
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L:S012.00.00:E055.00.00:1:1:5:1300:1300:1300:1300:1300:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C15" si="1">COUNT(F4:AC4)</f>
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L:S013.00.00:E055.00.00:1:1:5:1300:1300:1300:1300:1300:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L:S014.00.00:E055.00.00:1:1:5:1300:1300:1300:1300:1300:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L:S015.00.00:E055.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="str">
+        <f>"L:"&amp;D8&amp;".00.00:"&amp;E8&amp;".00.00:1:1:"&amp;C8&amp;":"&amp;F8&amp;"00:"&amp;G8&amp;"00:"&amp;H8&amp;"00:"&amp;I8&amp;"00:"&amp;J8&amp;"00:"&amp;K8&amp;"00:"&amp;L8&amp;"00:"&amp;M8&amp;"00:"&amp;N8&amp;"00:"&amp;O8&amp;"00:"&amp;P8&amp;"00:"&amp;Q8&amp;"00:"&amp;R8&amp;"00:"&amp;S8&amp;"00:"&amp;T8&amp;"00:"&amp;U8&amp;"00:"&amp;V8&amp;"00:"&amp;W8&amp;"00:"&amp;X8&amp;"00:"&amp;Y8&amp;"00"</f>
+        <v>L:S016.00.00:E055.00.00:1:1:9:2400:2400:2400:2400:2600:2600:2600:2600:2600:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
+      <c r="J8">
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <v>26</v>
+      </c>
+      <c r="L8">
+        <v>26</v>
+      </c>
+      <c r="M8">
+        <v>26</v>
+      </c>
+      <c r="N8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="str">
+        <f t="shared" ref="A9:A15" si="2">"L:"&amp;D9&amp;".00.00:"&amp;E9&amp;".00.00:1:1:"&amp;C9&amp;":"&amp;F9&amp;"00:"&amp;G9&amp;"00:"&amp;H9&amp;"00:"&amp;I9&amp;"00:"&amp;J9&amp;"00:"&amp;K9&amp;"00:"&amp;L9&amp;"00:"&amp;M9&amp;"00:"&amp;N9&amp;"00:"&amp;O9&amp;"00:"&amp;P9&amp;"00:"&amp;Q9&amp;"00:"&amp;R9&amp;"00:"&amp;S9&amp;"00:"&amp;T9&amp;"00:"&amp;U9&amp;"00:"&amp;V9&amp;"00:"&amp;W9&amp;"00:"&amp;X9&amp;"00:"&amp;Y9&amp;"00"</f>
+        <v>L:S017.00.00:E055.00.00:1:1:9:2400:2400:2400:2400:2600:2600:2600:2600:2600:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>24</v>
+      </c>
+      <c r="J9">
+        <v>26</v>
+      </c>
+      <c r="K9">
+        <v>26</v>
+      </c>
+      <c r="L9">
+        <v>26</v>
+      </c>
+      <c r="M9">
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S018.00.00:E055.00.00:1:1:9:2400:2400:2400:2400:2600:2600:2600:2600:2600:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>24</v>
+      </c>
+      <c r="J10">
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <v>26</v>
+      </c>
+      <c r="L10">
+        <v>26</v>
+      </c>
+      <c r="M10">
+        <v>26</v>
+      </c>
+      <c r="N10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S019.00.00:E055.00.00:1:1:9:2400:2400:2400:2400:2600:2600:2600:2600:2600:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>24</v>
+      </c>
+      <c r="J11">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>26</v>
+      </c>
+      <c r="L11">
+        <v>26</v>
+      </c>
+      <c r="M11">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S020.00.00:E055.00.00:1:1:9:2600:2600:2600:2600:2600:2600:2600:2600:2600:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <v>26</v>
+      </c>
+      <c r="I12">
+        <v>26</v>
+      </c>
+      <c r="J12">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>26</v>
+      </c>
+      <c r="L12">
+        <v>26</v>
+      </c>
+      <c r="M12">
+        <v>26</v>
+      </c>
+      <c r="N12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S021.00.00:E055.00.00:1:1:9:9800:4000:4000:4000:4000:000:000:000:2600:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>98</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>40</v>
+      </c>
+      <c r="J13">
+        <v>40</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S022.00.00:E056.00.00:1:1:4:4000:4000:4000:4000:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>40</v>
+      </c>
+      <c r="I14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S023.00.00:E056.00.00:1:1:4:4000:4000:4000:4000:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <v>40</v>
+      </c>
+      <c r="G16">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>40</v>
+      </c>
+      <c r="I16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_Shared Resources/TopSky/MSAW/TopSkyMSAW Coding Tool.xlsx
+++ b/_Shared Resources/TopSky/MSAW/TopSkyMSAW Coding Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATC Control\0 GitHub\Sector-Files\_Shared Resources\TopSky\MSAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BD30FE-13B9-4FA7-95E4-E43A0B5EA95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CDC50F-6484-4AC4-881C-24A62E7B261F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1785" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{38210610-A239-4B7F-93EB-C9D3CC6058FF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>N007</t>
   </si>
@@ -104,15 +104,9 @@
     <t>S011</t>
   </si>
   <si>
-    <t>E055</t>
-  </si>
-  <si>
     <t>MSA Start</t>
   </si>
   <si>
-    <t>E056</t>
-  </si>
-  <si>
     <t>S012</t>
   </si>
   <si>
@@ -165,6 +159,21 @@
   </si>
   <si>
     <t>S029</t>
+  </si>
+  <si>
+    <t>E040</t>
+  </si>
+  <si>
+    <t>E034</t>
+  </si>
+  <si>
+    <t>E030</t>
+  </si>
+  <si>
+    <t>E032</t>
+  </si>
+  <si>
+    <t>E031</t>
   </si>
 </sst>
 </file>
@@ -1236,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A78920B-173E-4272-A085-64BC10408654}">
-  <dimension ref="A2:N21"/>
+  <dimension ref="A2:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A15"/>
+      <selection activeCell="A3" sqref="A3:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1256,7 @@
     <col min="1" max="1" width="59" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>19</v>
       </c>
@@ -1255,503 +1264,598 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A15" si="0">"L:"&amp;D3&amp;".00.00:"&amp;E3&amp;".00.00:1:1:"&amp;C3&amp;":"&amp;F3&amp;"00:"&amp;G3&amp;"00:"&amp;H3&amp;"00:"&amp;I3&amp;"00:"&amp;J3&amp;"00:"&amp;K3&amp;"00:"&amp;L3&amp;"00:"&amp;M3&amp;"00:"&amp;N3&amp;"00:"&amp;O3&amp;"00:"&amp;P3&amp;"00:"&amp;Q3&amp;"00:"&amp;R3&amp;"00:"&amp;S3&amp;"00:"&amp;T3&amp;"00:"&amp;U3&amp;"00:"&amp;V3&amp;"00:"&amp;W3&amp;"00:"&amp;X3&amp;"00:"&amp;Y3&amp;"00"</f>
-        <v>L:S011.00.00:E055.00.00:1:1:4:1300:1300:1300:1300:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <f t="shared" ref="A3:A7" si="0">"L:"&amp;D3&amp;".00.00:"&amp;E3&amp;".00.00:1:1:"&amp;C3&amp;":"&amp;F3&amp;"00:"&amp;G3&amp;"00:"&amp;H3&amp;"00:"&amp;I3&amp;"00:"&amp;J3&amp;"00:"&amp;K3&amp;"00:"&amp;L3&amp;"00:"&amp;M3&amp;"00:"&amp;N3&amp;"00:"&amp;O3&amp;"00:"&amp;P3&amp;"00:"&amp;Q3&amp;"00:"&amp;R3&amp;"00:"&amp;S3&amp;"00:"&amp;T3&amp;"00:"&amp;U3&amp;"00:"&amp;V3&amp;"00:"&amp;W3&amp;"00:"&amp;X3&amp;"00:"&amp;Y3&amp;"00"</f>
+        <v>L:S011.00.00:E040.00.00:1:1:1:1900:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C3">
         <f>COUNT(F3:AC3)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>13</v>
-      </c>
-      <c r="I3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:S012.00.00:E055.00.00:1:1:5:1300:1300:1300:1300:1300:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S012.00.00:E034.00.00:1:1:7:9100:8600:5600:4700:4400:4600:2300:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C15" si="1">COUNT(F4:AC4)</f>
-        <v>5</v>
+        <f t="shared" ref="C4:C19" si="1">COUNT(F4:AC4)</f>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="J4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="K4">
+        <v>46</v>
+      </c>
+      <c r="L4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:S013.00.00:E055.00.00:1:1:5:1300:1300:1300:1300:1300:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S013.00.00:E034.00.00:1:1:7:7600:8400:5700:7100:4600:4100:3500:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="I5">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="J5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="K5">
+        <v>41</v>
+      </c>
+      <c r="L5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:S014.00.00:E055.00.00:1:1:5:1300:1300:1300:1300:1300:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S014.00.00:E034.00.00:1:1:8:7900:8100:5800:5800:5400:4600:4000:4000:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="I6">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="J6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="K6">
+        <v>46</v>
+      </c>
+      <c r="L6">
+        <v>40</v>
+      </c>
+      <c r="M6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:S015.00.00:E055.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S015.00.00:E030.00.00:1:1:11:7200:6000:7900:8200:9600:8200:8700:8100:8200:7100:3400:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>72</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="H7">
+        <v>79</v>
+      </c>
+      <c r="I7">
+        <v>82</v>
+      </c>
+      <c r="J7">
+        <v>96</v>
+      </c>
+      <c r="K7">
+        <v>82</v>
+      </c>
+      <c r="L7">
+        <v>87</v>
+      </c>
+      <c r="M7">
+        <v>81</v>
+      </c>
+      <c r="N7">
+        <v>82</v>
+      </c>
+      <c r="O7">
+        <v>71</v>
+      </c>
+      <c r="P7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>"L:"&amp;D8&amp;".00.00:"&amp;E8&amp;".00.00:1:1:"&amp;C8&amp;":"&amp;F8&amp;"00:"&amp;G8&amp;"00:"&amp;H8&amp;"00:"&amp;I8&amp;"00:"&amp;J8&amp;"00:"&amp;K8&amp;"00:"&amp;L8&amp;"00:"&amp;M8&amp;"00:"&amp;N8&amp;"00:"&amp;O8&amp;"00:"&amp;P8&amp;"00:"&amp;Q8&amp;"00:"&amp;R8&amp;"00:"&amp;S8&amp;"00:"&amp;T8&amp;"00:"&amp;U8&amp;"00:"&amp;V8&amp;"00:"&amp;W8&amp;"00:"&amp;X8&amp;"00:"&amp;Y8&amp;"00"</f>
-        <v>L:S016.00.00:E055.00.00:1:1:9:2400:2400:2400:2400:2600:2600:2600:2600:2600:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S016.00.00:E030.00.00:1:1:11:8200:9700:9700:7500:8500:12200:9500:10300:6000:4500:2400:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8">
+        <v>82</v>
+      </c>
+      <c r="G8">
+        <v>97</v>
+      </c>
+      <c r="H8">
+        <v>97</v>
+      </c>
+      <c r="I8">
+        <v>75</v>
+      </c>
+      <c r="J8">
+        <v>85</v>
+      </c>
+      <c r="K8">
+        <v>122</v>
+      </c>
+      <c r="L8">
+        <v>95</v>
+      </c>
+      <c r="M8">
+        <v>103</v>
+      </c>
+      <c r="N8">
+        <v>60</v>
+      </c>
+      <c r="O8">
+        <v>45</v>
+      </c>
+      <c r="P8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="str">
+        <f t="shared" ref="A9:A19" si="2">"L:"&amp;D9&amp;".00.00:"&amp;E9&amp;".00.00:1:1:"&amp;C9&amp;":"&amp;F9&amp;"00:"&amp;G9&amp;"00:"&amp;H9&amp;"00:"&amp;I9&amp;"00:"&amp;J9&amp;"00:"&amp;K9&amp;"00:"&amp;L9&amp;"00:"&amp;M9&amp;"00:"&amp;N9&amp;"00:"&amp;O9&amp;"00:"&amp;P9&amp;"00:"&amp;Q9&amp;"00:"&amp;R9&amp;"00:"&amp;S9&amp;"00:"&amp;T9&amp;"00:"&amp;U9&amp;"00:"&amp;V9&amp;"00:"&amp;W9&amp;"00:"&amp;X9&amp;"00:"&amp;Y9&amp;"00"</f>
+        <v>L:S017.00.00:E030.00.00:1:1:11:8200:7700:5200:4100:4600:9100:8000:4500:4000:2900:1400:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9">
+        <v>82</v>
+      </c>
+      <c r="G9">
+        <v>77</v>
+      </c>
+      <c r="H9">
+        <v>52</v>
+      </c>
+      <c r="I9">
+        <v>41</v>
+      </c>
+      <c r="J9">
+        <v>46</v>
+      </c>
+      <c r="K9">
+        <v>91</v>
+      </c>
+      <c r="L9">
+        <v>80</v>
+      </c>
+      <c r="M9">
+        <v>45</v>
+      </c>
+      <c r="N9">
+        <v>40</v>
+      </c>
+      <c r="O9">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8">
-        <v>24</v>
-      </c>
-      <c r="G8">
-        <v>24</v>
-      </c>
-      <c r="H8">
-        <v>24</v>
-      </c>
-      <c r="I8">
-        <v>24</v>
-      </c>
-      <c r="J8">
-        <v>26</v>
-      </c>
-      <c r="K8">
-        <v>26</v>
-      </c>
-      <c r="L8">
-        <v>26</v>
-      </c>
-      <c r="M8">
-        <v>26</v>
-      </c>
-      <c r="N8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="str">
-        <f t="shared" ref="A9:A15" si="2">"L:"&amp;D9&amp;".00.00:"&amp;E9&amp;".00.00:1:1:"&amp;C9&amp;":"&amp;F9&amp;"00:"&amp;G9&amp;"00:"&amp;H9&amp;"00:"&amp;I9&amp;"00:"&amp;J9&amp;"00:"&amp;K9&amp;"00:"&amp;L9&amp;"00:"&amp;M9&amp;"00:"&amp;N9&amp;"00:"&amp;O9&amp;"00:"&amp;P9&amp;"00:"&amp;Q9&amp;"00:"&amp;R9&amp;"00:"&amp;S9&amp;"00:"&amp;T9&amp;"00:"&amp;U9&amp;"00:"&amp;V9&amp;"00:"&amp;W9&amp;"00:"&amp;X9&amp;"00:"&amp;Y9&amp;"00"</f>
-        <v>L:S017.00.00:E055.00.00:1:1:9:2400:2400:2400:2400:2600:2600:2600:2600:2600:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9">
-        <v>24</v>
-      </c>
-      <c r="G9">
-        <v>24</v>
-      </c>
-      <c r="H9">
-        <v>24</v>
-      </c>
-      <c r="I9">
-        <v>24</v>
-      </c>
-      <c r="J9">
-        <v>26</v>
-      </c>
-      <c r="K9">
-        <v>26</v>
-      </c>
-      <c r="L9">
-        <v>26</v>
-      </c>
-      <c r="M9">
-        <v>26</v>
-      </c>
-      <c r="N9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S018.00.00:E055.00.00:1:1:9:2400:2400:2400:2400:2600:2600:2600:2600:2600:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S018.00.00:E032.00.00:1:1:8:9700:7900:3400:5200:3100:2200:1600:1400:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>97</v>
+      </c>
+      <c r="G10">
+        <v>79</v>
+      </c>
+      <c r="H10">
+        <v>34</v>
+      </c>
+      <c r="I10">
+        <v>52</v>
+      </c>
+      <c r="J10">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="K10">
         <v>22</v>
       </c>
-      <c r="F10">
-        <v>24</v>
-      </c>
-      <c r="G10">
-        <v>24</v>
-      </c>
-      <c r="H10">
-        <v>24</v>
-      </c>
-      <c r="I10">
-        <v>24</v>
-      </c>
-      <c r="J10">
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <v>26</v>
-      </c>
       <c r="L10">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>26</v>
-      </c>
-      <c r="N10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S019.00.00:E055.00.00:1:1:9:2400:2400:2400:2400:2600:2600:2600:2600:2600:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S019.00.00:E032.00.00:1:1:5:10900:8500:8500:2600:1400:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="G11">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="I11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J11">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>26</v>
-      </c>
-      <c r="L11">
-        <v>26</v>
-      </c>
-      <c r="M11">
-        <v>26</v>
-      </c>
-      <c r="N11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S020.00.00:E055.00.00:1:1:9:2600:2600:2600:2600:2600:2600:2600:2600:2600:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S020.00.00:E032.00.00:1:1:4:9800:10400:2800:1900:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F12">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="G12">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I12">
-        <v>26</v>
-      </c>
-      <c r="J12">
-        <v>26</v>
-      </c>
-      <c r="K12">
-        <v>26</v>
-      </c>
-      <c r="L12">
-        <v>26</v>
-      </c>
-      <c r="M12">
-        <v>26</v>
-      </c>
-      <c r="N12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S021.00.00:E055.00.00:1:1:9:9800:4000:4000:4000:4000:000:000:000:2600:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S021.00.00:E032.00.00:1:1:4:7500:4700:2200:1400:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13">
+        <v>75</v>
+      </c>
+      <c r="G13">
+        <v>47</v>
+      </c>
+      <c r="H13">
         <v>22</v>
       </c>
-      <c r="F13">
-        <v>98</v>
-      </c>
-      <c r="G13">
-        <v>40</v>
-      </c>
-      <c r="H13">
-        <v>40</v>
-      </c>
       <c r="I13">
-        <v>40</v>
-      </c>
-      <c r="J13">
-        <v>40</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S022.00.00:E056.00.00:1:1:4:4000:4000:4000:4000:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S022.00.00:E031.00.00:1:1:5:7500:7500:2800:1900:1700:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F14">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G14">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S023.00.00:E056.00.00:1:1:4:4000:4000:4000:4000:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S023.00.00:E031.00.00:1:1:5:3400:3200:2000:2000:1800:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>34</v>
+      </c>
+      <c r="G15">
+        <v>32</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S024.00.00:E031.00.00:1:1:5:3400:2300:2100:2100:2100:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <v>34</v>
+      </c>
+      <c r="G16">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>21</v>
+      </c>
+      <c r="I16">
+        <v>21</v>
+      </c>
+      <c r="J16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S025.00.00:E031.00.00:1:1:5:5000:3100:2300:2000:2000:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>31</v>
+      </c>
+      <c r="H17">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S026.00.00:E031.00.00:1:1:4:8600:4000:1800:1800:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15">
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18">
+        <v>86</v>
+      </c>
+      <c r="G18">
         <v>40</v>
       </c>
-      <c r="G15">
+      <c r="H18">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S027.00.00:E031.00.00:1:1:2:8400:4200:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19">
+        <v>84</v>
+      </c>
+      <c r="G19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>40</v>
-      </c>
-      <c r="H15">
-        <v>40</v>
-      </c>
-      <c r="I15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16">
-        <v>40</v>
-      </c>
-      <c r="G16">
-        <v>40</v>
-      </c>
-      <c r="H16">
-        <v>40</v>
-      </c>
-      <c r="I16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/_Shared Resources/TopSky/MSAW/TopSkyMSAW Coding Tool.xlsx
+++ b/_Shared Resources/TopSky/MSAW/TopSkyMSAW Coding Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATC Control\0 GitHub\Sector-Files\_Shared Resources\TopSky\MSAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42C881C-ECE6-41DA-960F-A150C39B5A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC51CF03-E7D5-4E6D-AB32-0D5CD8C3F880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-1770" windowWidth="29040" windowHeight="16440" xr2:uid="{38210610-A239-4B7F-93EB-C9D3CC6058FF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>South Edge</t>
   </si>
@@ -94,22 +94,19 @@
     <t>S026</t>
   </si>
   <si>
-    <t>S028</t>
-  </si>
-  <si>
-    <t>S029</t>
-  </si>
-  <si>
-    <t>E034</t>
-  </si>
-  <si>
-    <t>E032</t>
-  </si>
-  <si>
-    <t>S010</t>
-  </si>
-  <si>
-    <t>E033</t>
+    <t>E047</t>
+  </si>
+  <si>
+    <t>E043</t>
+  </si>
+  <si>
+    <t>E042</t>
+  </si>
+  <si>
+    <t>E045</t>
+  </si>
+  <si>
+    <t>E040</t>
   </si>
 </sst>
 </file>
@@ -474,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A78920B-173E-4272-A085-64BC10408654}">
-  <dimension ref="A2:I21"/>
+  <dimension ref="A2:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +482,7 @@
     <col min="1" max="1" width="59" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -496,331 +493,780 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:A7" si="0">"L:"&amp;D3&amp;".00.00:"&amp;E3&amp;".00.00:1:1:"&amp;C3&amp;":"&amp;F3&amp;"00:"&amp;G3&amp;"00:"&amp;H3&amp;"00:"&amp;I3&amp;"00:"&amp;J3&amp;"00:"&amp;K3&amp;"00:"&amp;L3&amp;"00:"&amp;M3&amp;"00:"&amp;N3&amp;"00:"&amp;O3&amp;"00:"&amp;P3&amp;"00:"&amp;Q3&amp;"00:"&amp;R3&amp;"00:"&amp;S3&amp;"00:"&amp;T3&amp;"00:"&amp;U3&amp;"00:"&amp;V3&amp;"00:"&amp;W3&amp;"00:"&amp;X3&amp;"00:"&amp;Y3&amp;"00"</f>
-        <v>L:S010.00.00:E032.00.00:1:1:3:8500:12000:12100:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S011.00.00:E047.00.00:1:1:9:1400:000:000:000:1400:000:000:000:1300:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C3">
         <f>COUNT(F3:AC3)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:S011.00.00:E033.00.00:1:1:2:10900:10300:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S012.00.00:E043.00.00:1:1:9:10100:000:000:000:1400:000:2100:000:1400:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C19" si="1">COUNT(F4:AC4)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>21</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:S012.00.00:E033.00.00:1:1:3:8800:9100:8600:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S013.00.00:E043.00.00:1:1:7:3900:7600:3500:000:000:3000:7200:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G5">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="H5">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:S013.00.00:E032.00.00:1:1:3:7200:8700:7600:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S014.00.00:E042.00.00:1:1:14:3900:3900:7600:7600:3500:3500:11300:11300:3100:000:000:000:000:1300:00:00:00:00:00:00</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G6">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>76</v>
+      </c>
+      <c r="J6">
+        <v>35</v>
+      </c>
+      <c r="K6">
+        <v>35</v>
+      </c>
+      <c r="L6">
+        <v>113</v>
+      </c>
+      <c r="M6">
+        <v>113</v>
+      </c>
+      <c r="N6">
+        <v>31</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:S014.00.00:E032.00.00:1:1:4:8100:7900:7900:8100:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S015.00.00:E047.00.00:1:1:4:2500:11800:11300:3800:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="H7">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="I7">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>"L:"&amp;D8&amp;".00.00:"&amp;E8&amp;".00.00:1:1:"&amp;C8&amp;":"&amp;F8&amp;"00:"&amp;G8&amp;"00:"&amp;H8&amp;"00:"&amp;I8&amp;"00:"&amp;J8&amp;"00:"&amp;K8&amp;"00:"&amp;L8&amp;"00:"&amp;M8&amp;"00:"&amp;N8&amp;"00:"&amp;O8&amp;"00:"&amp;P8&amp;"00:"&amp;Q8&amp;"00:"&amp;R8&amp;"00:"&amp;S8&amp;"00:"&amp;T8&amp;"00:"&amp;U8&amp;"00:"&amp;V8&amp;"00:"&amp;W8&amp;"00:"&amp;X8&amp;"00:"&amp;Y8&amp;"00"</f>
-        <v>L:S015.00.00:E032.00.00:1:1:4:7900:8200:9600:8200:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S016.00.00:E045.00.00:1:1:11:1600:2300:2900:11800:11800:5300:000:000:000:1300:2400:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
       <c r="F8">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="H8">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="I8">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="J8">
+        <v>118</v>
+      </c>
+      <c r="K8">
+        <v>53</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>13</v>
+      </c>
+      <c r="P8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" ref="A9:A19" si="2">"L:"&amp;D9&amp;".00.00:"&amp;E9&amp;".00.00:1:1:"&amp;C9&amp;":"&amp;F9&amp;"00:"&amp;G9&amp;"00:"&amp;H9&amp;"00:"&amp;I9&amp;"00:"&amp;J9&amp;"00:"&amp;K9&amp;"00:"&amp;L9&amp;"00:"&amp;M9&amp;"00:"&amp;N9&amp;"00:"&amp;O9&amp;"00:"&amp;P9&amp;"00:"&amp;Q9&amp;"00:"&amp;R9&amp;"00:"&amp;S9&amp;"00:"&amp;T9&amp;"00:"&amp;U9&amp;"00:"&amp;V9&amp;"00:"&amp;W9&amp;"00:"&amp;X9&amp;"00:"&amp;Y9&amp;"00"</f>
-        <v>L:S016.00.00:E033.00.00:1:1:3:7500:8500:12200:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S017.00.00:E043.00.00:1:1:12:1300:3300:3800:2600:5600:5900:5200:1500:000:000:000:2400:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>38</v>
+      </c>
+      <c r="I9">
+        <v>26</v>
+      </c>
+      <c r="J9">
+        <v>56</v>
+      </c>
+      <c r="K9">
+        <v>59</v>
+      </c>
+      <c r="L9">
+        <v>52</v>
+      </c>
+      <c r="M9">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>24</v>
       </c>
-      <c r="F9">
-        <v>75</v>
-      </c>
-      <c r="G9">
-        <v>85</v>
-      </c>
-      <c r="H9">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S017.00.00:E034.00.00:1:1:2:4600:9100:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S018.00.00:E042.00.00:1:1:14:1300:1400:3800:4800:7100:7400:7400:5300:1500:000:000:000:000:2400:00:00:00:00:00:00</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
       </c>
       <c r="F10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>38</v>
+      </c>
+      <c r="I10">
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <v>71</v>
+      </c>
+      <c r="K10">
+        <v>74</v>
+      </c>
+      <c r="L10">
+        <v>74</v>
+      </c>
+      <c r="M10">
+        <v>53</v>
+      </c>
+      <c r="N10">
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S018.00.00:.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S019.00.00:E045.00.00:1:1:13:1300:4400:5800:8400:8200:7500:4300:000:000:000:000:000:2400:00:00:00:00:00:00:00</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <v>58</v>
+      </c>
+      <c r="I11">
+        <v>84</v>
+      </c>
+      <c r="J11">
+        <v>82</v>
+      </c>
+      <c r="K11">
+        <v>75</v>
+      </c>
+      <c r="L11">
+        <v>43</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S019.00.00:.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S020.00.00:E045.00.00:1:1:13:1300:3300:7300:10000:11000:7500:1400:000:000:000:000:000:2600:00:00:00:00:00:00:00</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>33</v>
+      </c>
+      <c r="H12">
+        <v>73</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>110</v>
+      </c>
+      <c r="K12">
+        <v>75</v>
+      </c>
+      <c r="L12">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S020.00.00:.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S021.00.00:E045.00.00:1:1:14:1500:2800:5500:9800:9700:4700:000:000:000:000:000:000:9800:4000:00:00:00:00:00:00</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>28</v>
+      </c>
+      <c r="H13">
+        <v>55</v>
+      </c>
+      <c r="I13">
+        <v>98</v>
+      </c>
+      <c r="J13">
+        <v>97</v>
+      </c>
+      <c r="K13">
+        <v>47</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>98</v>
+      </c>
+      <c r="S13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S021.00.00:.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S022.00.00:E045.00.00:1:1:14:2700:3300:5500:9800:8900:4700:000:000:000:000:000:000:12400:4000:00:00:00:00:00:00</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>27</v>
+      </c>
+      <c r="G14">
+        <v>33</v>
+      </c>
+      <c r="H14">
+        <v>55</v>
+      </c>
+      <c r="I14">
+        <v>98</v>
+      </c>
+      <c r="J14">
+        <v>89</v>
+      </c>
+      <c r="K14">
+        <v>47</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>124</v>
+      </c>
+      <c r="S14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S022.00.00:.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S023.00.00:E040.00.00:1:1:17:1400:000:000:4800:5700:5700:11100:8100:1500:000:000:000:000:000:000:000:4000:00:00:00</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>48</v>
+      </c>
+      <c r="J15">
+        <v>57</v>
+      </c>
+      <c r="K15">
+        <v>57</v>
+      </c>
+      <c r="L15">
+        <v>111</v>
+      </c>
+      <c r="M15">
+        <v>81</v>
+      </c>
+      <c r="N15">
+        <v>15</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S023.00.00:.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S024.00.00:E040.00.00:1:1:9:1400:1400:000:4800:4800:7400:11100:11100:1500:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>48</v>
+      </c>
+      <c r="J16">
+        <v>48</v>
+      </c>
+      <c r="K16">
+        <v>74</v>
+      </c>
+      <c r="L16">
+        <v>111</v>
+      </c>
+      <c r="M16">
+        <v>111</v>
+      </c>
+      <c r="N16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S024.00.00:.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S025.00.00:E043.00.00:1:1:5:1900:3000:7100:8800:8700:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>19</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>71</v>
+      </c>
+      <c r="I17">
+        <v>88</v>
+      </c>
+      <c r="J17">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S025.00.00:.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S026.00.00:E043.00.00:1:1:5:1900:7100:7100:8800:8800:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>71</v>
+      </c>
+      <c r="H18">
+        <v>71</v>
+      </c>
+      <c r="I18">
+        <v>88</v>
+      </c>
+      <c r="J18">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S026.00.00:.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:.00.00:.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/_Shared Resources/TopSky/MSAW/TopSkyMSAW Coding Tool.xlsx
+++ b/_Shared Resources/TopSky/MSAW/TopSkyMSAW Coding Tool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATC Control\0 GitHub\Sector-Files\_Shared Resources\TopSky\MSAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC51CF03-E7D5-4E6D-AB32-0D5CD8C3F880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000A7A43-4CA6-40B4-B133-0CCF9418082B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-1770" windowWidth="29040" windowHeight="16440" xr2:uid="{38210610-A239-4B7F-93EB-C9D3CC6058FF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>South Edge</t>
   </si>
@@ -52,61 +52,67 @@
     <t>S012</t>
   </si>
   <si>
-    <t>S013</t>
-  </si>
-  <si>
-    <t>S014</t>
-  </si>
-  <si>
-    <t>S015</t>
-  </si>
-  <si>
-    <t>S016</t>
-  </si>
-  <si>
-    <t>S017</t>
-  </si>
-  <si>
     <t>S018</t>
   </si>
   <si>
-    <t>S019</t>
-  </si>
-  <si>
-    <t>S020</t>
-  </si>
-  <si>
-    <t>S021</t>
-  </si>
-  <si>
-    <t>S022</t>
-  </si>
-  <si>
-    <t>S023</t>
-  </si>
-  <si>
-    <t>S024</t>
-  </si>
-  <si>
-    <t>S025</t>
-  </si>
-  <si>
-    <t>S026</t>
-  </si>
-  <si>
-    <t>E047</t>
-  </si>
-  <si>
     <t>E043</t>
   </si>
   <si>
-    <t>E042</t>
-  </si>
-  <si>
-    <t>E045</t>
-  </si>
-  <si>
     <t>E040</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>S010</t>
+  </si>
+  <si>
+    <t>E029</t>
+  </si>
+  <si>
+    <t>N003</t>
+  </si>
+  <si>
+    <t>E034</t>
+  </si>
+  <si>
+    <t>N002</t>
+  </si>
+  <si>
+    <t>N001</t>
+  </si>
+  <si>
+    <t>N000</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>E033</t>
+  </si>
+  <si>
+    <t>E037</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A78920B-173E-4272-A085-64BC10408654}">
-  <dimension ref="A2:V19"/>
+  <dimension ref="A2:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A11" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +488,7 @@
     <col min="1" max="1" width="59" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -493,780 +499,465 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:A7" si="0">"L:"&amp;D3&amp;".00.00:"&amp;E3&amp;".00.00:1:1:"&amp;C3&amp;":"&amp;F3&amp;"00:"&amp;G3&amp;"00:"&amp;H3&amp;"00:"&amp;I3&amp;"00:"&amp;J3&amp;"00:"&amp;K3&amp;"00:"&amp;L3&amp;"00:"&amp;M3&amp;"00:"&amp;N3&amp;"00:"&amp;O3&amp;"00:"&amp;P3&amp;"00:"&amp;Q3&amp;"00:"&amp;R3&amp;"00:"&amp;S3&amp;"00:"&amp;T3&amp;"00:"&amp;U3&amp;"00:"&amp;V3&amp;"00:"&amp;W3&amp;"00:"&amp;X3&amp;"00:"&amp;Y3&amp;"00"</f>
-        <v>L:S011.00.00:E047.00.00:1:1:9:1400:000:000:000:1400:000:000:000:1300:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:N003.00.00:E034.00.00:1:1:8:11100:10700:5800:8300:8500:7400:7600:3900:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C3">
         <f>COUNT(F3:AC3)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="J3">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:S012.00.00:E043.00.00:1:1:9:10100:000:000:000:1400:000:2100:000:1400:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:N002.00.00:E034.00.00:1:1:7:12100:11500:11800:7900:7900:9200:4500:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C19" si="1">COUNT(F4:AC4)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="J4">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="L4">
-        <v>21</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:S013.00.00:E043.00.00:1:1:7:3900:7600:3500:000:000:3000:7200:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:N001.00.00:E034.00.00:1:1:7:16300:14500:10800:11400:3800:4400:2400:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="G5">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="H5">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L5">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:S014.00.00:E042.00.00:1:1:14:3900:3900:7600:7600:3500:3500:11300:11300:3100:000:000:000:000:1300:00:00:00:00:00:00</v>
+        <v>L:N000.00.00:E033.00.00:1:1:8:6600:12800:11900:10900:13500:8200:2800:4000:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="G6">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="H6">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="I6">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="J6">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="K6">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="L6">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="M6">
-        <v>113</v>
-      </c>
-      <c r="N6">
-        <v>31</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:S015.00.00:E047.00.00:1:1:4:2500:11800:11300:3800:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S001.00.00:E033.00.00:1:1:9:6700:9600:13000:15500:19400:8100:3000:2400:1800:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G7">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="H7">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="J7">
+        <v>194</v>
+      </c>
+      <c r="K7">
+        <v>81</v>
+      </c>
+      <c r="L7">
+        <v>30</v>
+      </c>
+      <c r="M7">
+        <v>24</v>
+      </c>
+      <c r="N7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>"L:"&amp;D8&amp;".00.00:"&amp;E8&amp;".00.00:1:1:"&amp;C8&amp;":"&amp;F8&amp;"00:"&amp;G8&amp;"00:"&amp;H8&amp;"00:"&amp;I8&amp;"00:"&amp;J8&amp;"00:"&amp;K8&amp;"00:"&amp;L8&amp;"00:"&amp;M8&amp;"00:"&amp;N8&amp;"00:"&amp;O8&amp;"00:"&amp;P8&amp;"00:"&amp;Q8&amp;"00:"&amp;R8&amp;"00:"&amp;S8&amp;"00:"&amp;T8&amp;"00:"&amp;U8&amp;"00:"&amp;V8&amp;"00:"&amp;W8&amp;"00:"&amp;X8&amp;"00:"&amp;Y8&amp;"00"</f>
-        <v>L:S016.00.00:E045.00.00:1:1:11:1600:2300:2900:11800:11800:5300:000:000:000:1300:2400:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S002.00.00:E033.00.00:1:1:10:8100:9000:11700:10900:9400:7700:2800:2100:1800:1400:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="H8">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="I8">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J8">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="K8">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O8">
-        <v>13</v>
-      </c>
-      <c r="P8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" ref="A9:A19" si="2">"L:"&amp;D9&amp;".00.00:"&amp;E9&amp;".00.00:1:1:"&amp;C9&amp;":"&amp;F9&amp;"00:"&amp;G9&amp;"00:"&amp;H9&amp;"00:"&amp;I9&amp;"00:"&amp;J9&amp;"00:"&amp;K9&amp;"00:"&amp;L9&amp;"00:"&amp;M9&amp;"00:"&amp;N9&amp;"00:"&amp;O9&amp;"00:"&amp;P9&amp;"00:"&amp;Q9&amp;"00:"&amp;R9&amp;"00:"&amp;S9&amp;"00:"&amp;T9&amp;"00:"&amp;U9&amp;"00:"&amp;V9&amp;"00:"&amp;W9&amp;"00:"&amp;X9&amp;"00:"&amp;Y9&amp;"00"</f>
-        <v>L:S017.00.00:E043.00.00:1:1:12:1300:3300:3800:2600:5600:5900:5200:1500:000:000:000:2400:00:00:00:00:00:00:00:00</v>
+        <v>L:S003.00.00:E034.00.00:1:1:8:8200:12900:12000:16200:8300:2700:1800:1400:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="G9">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="H9">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="I9">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="J9">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="K9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="L9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>15</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S018.00.00:E042.00.00:1:1:14:1300:1400:3800:4800:7100:7400:7400:5300:1500:000:000:000:000:2400:00:00:00:00:00:00</v>
+        <v>L:S004.00.00:E037.00.00:1:1:4:21300:9600:3100:1900:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="H10">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I10">
-        <v>48</v>
-      </c>
-      <c r="J10">
-        <v>71</v>
-      </c>
-      <c r="K10">
-        <v>74</v>
-      </c>
-      <c r="L10">
-        <v>74</v>
-      </c>
-      <c r="M10">
-        <v>53</v>
-      </c>
-      <c r="N10">
-        <v>15</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S019.00.00:E045.00.00:1:1:13:1300:4400:5800:8400:8200:7500:4300:000:000:000:000:000:2400:00:00:00:00:00:00:00</v>
+        <v>L:S005.00.00:E034.00.00:1:1:3:10400:9900:2900:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="G11">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="H11">
-        <v>58</v>
-      </c>
-      <c r="I11">
-        <v>84</v>
-      </c>
-      <c r="J11">
-        <v>82</v>
-      </c>
-      <c r="K11">
-        <v>75</v>
-      </c>
-      <c r="L11">
-        <v>43</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S020.00.00:E045.00.00:1:1:13:1300:3300:7300:10000:11000:7500:1400:000:000:000:000:000:2600:00:00:00:00:00:00:00</v>
+        <v>L:S006.00.00:E034.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12">
-        <v>13</v>
-      </c>
-      <c r="G12">
-        <v>33</v>
-      </c>
-      <c r="H12">
-        <v>73</v>
-      </c>
-      <c r="I12">
-        <v>100</v>
-      </c>
-      <c r="J12">
-        <v>110</v>
-      </c>
-      <c r="K12">
-        <v>75</v>
-      </c>
-      <c r="L12">
-        <v>14</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S021.00.00:E045.00.00:1:1:14:1500:2800:5500:9800:9700:4700:000:000:000:000:000:000:9800:4000:00:00:00:00:00:00</v>
+        <v>L:S007.00.00:E034.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>28</v>
-      </c>
-      <c r="H13">
-        <v>55</v>
-      </c>
-      <c r="I13">
-        <v>98</v>
-      </c>
-      <c r="J13">
-        <v>97</v>
-      </c>
-      <c r="K13">
-        <v>47</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>98</v>
-      </c>
-      <c r="S13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S022.00.00:E045.00.00:1:1:14:2700:3300:5500:9800:8900:4700:000:000:000:000:000:000:12400:4000:00:00:00:00:00:00</v>
+        <v>L:S008.00.00:E029.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14">
-        <v>27</v>
-      </c>
-      <c r="G14">
-        <v>33</v>
-      </c>
-      <c r="H14">
-        <v>55</v>
-      </c>
-      <c r="I14">
-        <v>98</v>
-      </c>
-      <c r="J14">
-        <v>89</v>
-      </c>
-      <c r="K14">
-        <v>47</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>124</v>
-      </c>
-      <c r="S14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S023.00.00:E040.00.00:1:1:17:1400:000:000:4800:5700:5700:11100:8100:1500:000:000:000:000:000:000:000:4000:00:00:00</v>
+        <v>L:S009.00.00:E040.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>48</v>
-      </c>
-      <c r="J15">
-        <v>57</v>
-      </c>
-      <c r="K15">
-        <v>57</v>
-      </c>
-      <c r="L15">
-        <v>111</v>
-      </c>
-      <c r="M15">
-        <v>81</v>
-      </c>
-      <c r="N15">
-        <v>15</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S024.00.00:E040.00.00:1:1:9:1400:1400:000:4800:4800:7400:11100:11100:1500:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S010.00.00:E040.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16">
-        <v>14</v>
-      </c>
-      <c r="G16">
-        <v>14</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>48</v>
-      </c>
-      <c r="J16">
-        <v>48</v>
-      </c>
-      <c r="K16">
-        <v>74</v>
-      </c>
-      <c r="L16">
-        <v>111</v>
-      </c>
-      <c r="M16">
-        <v>111</v>
-      </c>
-      <c r="N16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S025.00.00:E043.00.00:1:1:5:1900:3000:7100:8800:8700:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S011.00.00:E043.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17">
-        <v>19</v>
-      </c>
-      <c r="G17">
-        <v>30</v>
-      </c>
-      <c r="H17">
-        <v>71</v>
-      </c>
-      <c r="I17">
-        <v>88</v>
-      </c>
-      <c r="J17">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S026.00.00:E043.00.00:1:1:5:1900:7100:7100:8800:8800:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S012.00.00:E043.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18">
-        <v>19</v>
-      </c>
-      <c r="G18">
-        <v>71</v>
-      </c>
-      <c r="H18">
-        <v>71</v>
-      </c>
-      <c r="I18">
-        <v>88</v>
-      </c>
-      <c r="J18">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:.00.00:.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S018.00.00:.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/_Shared Resources/TopSky/MSAW/TopSkyMSAW Coding Tool.xlsx
+++ b/_Shared Resources/TopSky/MSAW/TopSkyMSAW Coding Tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATC Control\0 GitHub\Sector-Files\_Shared Resources\TopSky\MSAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000A7A43-4CA6-40B4-B133-0CCF9418082B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF937A2-3CD9-4776-A288-0EB21552AE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-1770" windowWidth="29040" windowHeight="16440" xr2:uid="{38210610-A239-4B7F-93EB-C9D3CC6058FF}"/>
+    <workbookView xWindow="28680" yWindow="-1785" windowWidth="29040" windowHeight="16440" xr2:uid="{38210610-A239-4B7F-93EB-C9D3CC6058FF}"/>
   </bookViews>
   <sheets>
     <sheet name="MSAW" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>South Edge</t>
   </si>
@@ -43,76 +43,73 @@
     <t>West Edge</t>
   </si>
   <si>
-    <t>S011</t>
-  </si>
-  <si>
     <t>MSA Start</t>
   </si>
   <si>
-    <t>S012</t>
-  </si>
-  <si>
     <t>S018</t>
   </si>
   <si>
-    <t>E043</t>
-  </si>
-  <si>
-    <t>E040</t>
-  </si>
-  <si>
-    <t>S002</t>
-  </si>
-  <si>
-    <t>S003</t>
-  </si>
-  <si>
-    <t>S004</t>
-  </si>
-  <si>
-    <t>S005</t>
-  </si>
-  <si>
-    <t>S006</t>
-  </si>
-  <si>
-    <t>S007</t>
-  </si>
-  <si>
-    <t>S008</t>
-  </si>
-  <si>
-    <t>S009</t>
-  </si>
-  <si>
-    <t>S010</t>
-  </si>
-  <si>
-    <t>E029</t>
-  </si>
-  <si>
-    <t>N003</t>
-  </si>
-  <si>
-    <t>E034</t>
-  </si>
-  <si>
-    <t>N002</t>
-  </si>
-  <si>
-    <t>N001</t>
-  </si>
-  <si>
-    <t>N000</t>
-  </si>
-  <si>
-    <t>S001</t>
-  </si>
-  <si>
-    <t>E033</t>
-  </si>
-  <si>
-    <t>E037</t>
+    <t>E013</t>
+  </si>
+  <si>
+    <t>S019</t>
+  </si>
+  <si>
+    <t>S020</t>
+  </si>
+  <si>
+    <t>S021</t>
+  </si>
+  <si>
+    <t>S022</t>
+  </si>
+  <si>
+    <t>S023</t>
+  </si>
+  <si>
+    <t>S024</t>
+  </si>
+  <si>
+    <t>S025</t>
+  </si>
+  <si>
+    <t>S026</t>
+  </si>
+  <si>
+    <t>S027</t>
+  </si>
+  <si>
+    <t>S028</t>
+  </si>
+  <si>
+    <t>S029</t>
+  </si>
+  <si>
+    <t>S030</t>
+  </si>
+  <si>
+    <t>S031</t>
+  </si>
+  <si>
+    <t>S032</t>
+  </si>
+  <si>
+    <t>S033</t>
+  </si>
+  <si>
+    <t>S034</t>
+  </si>
+  <si>
+    <t>E012</t>
+  </si>
+  <si>
+    <t>E011</t>
+  </si>
+  <si>
+    <t>E014</t>
+  </si>
+  <si>
+    <t>E015</t>
   </si>
 </sst>
 </file>
@@ -477,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A78920B-173E-4272-A085-64BC10408654}">
-  <dimension ref="A2:O19"/>
+  <dimension ref="A2:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A3:A11"/>
+      <selection activeCell="A3" sqref="A3:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +485,7 @@
     <col min="1" max="1" width="59" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -496,468 +493,561 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:A7" si="0">"L:"&amp;D3&amp;".00.00:"&amp;E3&amp;".00.00:1:1:"&amp;C3&amp;":"&amp;F3&amp;"00:"&amp;G3&amp;"00:"&amp;H3&amp;"00:"&amp;I3&amp;"00:"&amp;J3&amp;"00:"&amp;K3&amp;"00:"&amp;L3&amp;"00:"&amp;M3&amp;"00:"&amp;N3&amp;"00:"&amp;O3&amp;"00:"&amp;P3&amp;"00:"&amp;Q3&amp;"00:"&amp;R3&amp;"00:"&amp;S3&amp;"00:"&amp;T3&amp;"00:"&amp;U3&amp;"00:"&amp;V3&amp;"00:"&amp;W3&amp;"00:"&amp;X3&amp;"00:"&amp;Y3&amp;"00"</f>
-        <v>L:N003.00.00:E034.00.00:1:1:8:11100:10700:5800:8300:8500:7400:7600:3900:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S018.00.00:E013.00.00:1:1:15:2700:9000:9200:7200:5300:5200:5200:5200:5200:5100:5200:4700:5400:5300:5800:00:00:00:00:00</v>
       </c>
       <c r="C3">
         <f>COUNT(F3:AC3)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="H3">
+        <v>92</v>
+      </c>
+      <c r="I3">
+        <v>72</v>
+      </c>
+      <c r="J3">
+        <v>53</v>
+      </c>
+      <c r="K3">
+        <v>52</v>
+      </c>
+      <c r="L3">
+        <v>52</v>
+      </c>
+      <c r="M3">
+        <v>52</v>
+      </c>
+      <c r="N3">
+        <v>52</v>
+      </c>
+      <c r="O3">
+        <v>51</v>
+      </c>
+      <c r="P3">
+        <v>52</v>
+      </c>
+      <c r="Q3">
+        <v>47</v>
+      </c>
+      <c r="R3">
+        <v>54</v>
+      </c>
+      <c r="S3">
+        <v>53</v>
+      </c>
+      <c r="T3">
         <v>58</v>
       </c>
-      <c r="I3">
-        <v>83</v>
-      </c>
-      <c r="J3">
-        <v>85</v>
-      </c>
-      <c r="K3">
-        <v>74</v>
-      </c>
-      <c r="L3">
-        <v>76</v>
-      </c>
-      <c r="M3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:N002.00.00:E034.00.00:1:1:7:12100:11500:11800:7900:7900:9200:4500:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S019.00.00:E013.00.00:1:1:15:2400:6000:8500:8000:5100:5100:5200:5300:5300:5100:6000:4800:4500:5100:7100:00:00:00:00:00</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C19" si="1">COUNT(F4:AC4)</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="I4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J4">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="K4">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="L4">
+        <v>52</v>
+      </c>
+      <c r="M4">
+        <v>53</v>
+      </c>
+      <c r="N4">
+        <v>53</v>
+      </c>
+      <c r="O4">
+        <v>51</v>
+      </c>
+      <c r="P4">
+        <v>60</v>
+      </c>
+      <c r="Q4">
+        <v>48</v>
+      </c>
+      <c r="R4">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>51</v>
+      </c>
+      <c r="T4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:N001.00.00:E034.00.00:1:1:7:16300:14500:10800:11400:3800:4400:2400:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S020.00.00:E012.00.00:1:1:9:3800:7700:8200:7900:8300:9400:8000:5400:5400:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
       <c r="F5">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="G5">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="H5">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="I5">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="J5">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="K5">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="L5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="M5">
+        <v>54</v>
+      </c>
+      <c r="N5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:N000.00.00:E033.00.00:1:1:8:6600:12800:11900:10900:13500:8200:2800:4000:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S021.00.00:E011.00.00:1:1:8:7200:7600:9000:8500:8700:7100:5900:5400:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
       <c r="F6">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G6">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="H6">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="I6">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J6">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="K6">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="L6">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:S001.00.00:E033.00.00:1:1:9:6700:9600:13000:15500:19400:8100:3000:2400:1800:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S022.00.00:E013.00.00:1:1:8:3900:10800:10000:9800:8400:7900:7400:5800:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G7">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="H7">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I7">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="J7">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="K7">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="M7">
-        <v>24</v>
-      </c>
-      <c r="N7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>"L:"&amp;D8&amp;".00.00:"&amp;E8&amp;".00.00:1:1:"&amp;C8&amp;":"&amp;F8&amp;"00:"&amp;G8&amp;"00:"&amp;H8&amp;"00:"&amp;I8&amp;"00:"&amp;J8&amp;"00:"&amp;K8&amp;"00:"&amp;L8&amp;"00:"&amp;M8&amp;"00:"&amp;N8&amp;"00:"&amp;O8&amp;"00:"&amp;P8&amp;"00:"&amp;Q8&amp;"00:"&amp;R8&amp;"00:"&amp;S8&amp;"00:"&amp;T8&amp;"00:"&amp;U8&amp;"00:"&amp;V8&amp;"00:"&amp;W8&amp;"00:"&amp;X8&amp;"00:"&amp;Y8&amp;"00"</f>
-        <v>L:S002.00.00:E033.00.00:1:1:10:8100:9000:11700:10900:9400:7700:2800:2100:1800:1400:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S023.00.00:E014.00.00:1:1:6:4500:8900:10100:10400:8100:7300:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>89</v>
+      </c>
+      <c r="H8">
+        <v>101</v>
+      </c>
+      <c r="I8">
+        <v>104</v>
+      </c>
+      <c r="J8">
         <v>81</v>
       </c>
-      <c r="G8">
-        <v>90</v>
-      </c>
-      <c r="H8">
-        <v>117</v>
-      </c>
-      <c r="I8">
-        <v>109</v>
-      </c>
-      <c r="J8">
-        <v>94</v>
-      </c>
       <c r="K8">
-        <v>77</v>
-      </c>
-      <c r="L8">
-        <v>28</v>
-      </c>
-      <c r="M8">
-        <v>21</v>
-      </c>
-      <c r="N8">
-        <v>18</v>
-      </c>
-      <c r="O8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" ref="A9:A19" si="2">"L:"&amp;D9&amp;".00.00:"&amp;E9&amp;".00.00:1:1:"&amp;C9&amp;":"&amp;F9&amp;"00:"&amp;G9&amp;"00:"&amp;H9&amp;"00:"&amp;I9&amp;"00:"&amp;J9&amp;"00:"&amp;K9&amp;"00:"&amp;L9&amp;"00:"&amp;M9&amp;"00:"&amp;N9&amp;"00:"&amp;O9&amp;"00:"&amp;P9&amp;"00:"&amp;Q9&amp;"00:"&amp;R9&amp;"00:"&amp;S9&amp;"00:"&amp;T9&amp;"00:"&amp;U9&amp;"00:"&amp;V9&amp;"00:"&amp;W9&amp;"00:"&amp;X9&amp;"00:"&amp;Y9&amp;"00"</f>
-        <v>L:S003.00.00:E034.00.00:1:1:8:8200:12900:12000:16200:8300:2700:1800:1400:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S024.00.00:E014.00.00:1:1:6:3200:7200:10400:9700:7400:7100:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="G9">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="H9">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="I9">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="J9">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K9">
-        <v>27</v>
-      </c>
-      <c r="L9">
-        <v>18</v>
-      </c>
-      <c r="M9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S004.00.00:E037.00.00:1:1:4:21300:9600:3100:1900:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S025.00.00:E014.00.00:1:1:7:3200:8800:9300:7100:5400:5400:5800:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H10">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="I10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="J10">
+        <v>54</v>
+      </c>
+      <c r="K10">
+        <v>54</v>
+      </c>
+      <c r="L10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S005.00.00:E034.00.00:1:1:3:10400:9900:2900:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S026.00.00:E014.00.00:1:1:7:2100:8600:9200:7800:5200:5000:4800:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F11">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H11">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="I11">
+        <v>78</v>
+      </c>
+      <c r="J11">
+        <v>52</v>
+      </c>
+      <c r="K11">
+        <v>50</v>
+      </c>
+      <c r="L11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S006.00.00:E034.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S027.00.00:E014.00.00:1:1:7:1900:5200:8700:7200:8100:4800:4400:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>52</v>
+      </c>
+      <c r="H12">
+        <v>87</v>
+      </c>
+      <c r="I12">
+        <v>72</v>
+      </c>
+      <c r="J12">
+        <v>81</v>
+      </c>
+      <c r="K12">
+        <v>48</v>
+      </c>
+      <c r="L12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S007.00.00:E034.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S028.00.00:E015.00.00:1:1:6:4600:8100:7700:9800:7600:4500:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>46</v>
+      </c>
+      <c r="G13">
+        <v>81</v>
+      </c>
+      <c r="H13">
+        <v>77</v>
+      </c>
+      <c r="I13">
+        <v>98</v>
+      </c>
+      <c r="J13">
+        <v>76</v>
+      </c>
+      <c r="K13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S008.00.00:E029.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S029.00.00:E014.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S009.00.00:E040.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S030.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S010.00.00:E040.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S031.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S011.00.00:E043.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S032.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S012.00.00:E043.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S033.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
         <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S018.00.00:.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S034.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/_Shared Resources/TopSky/MSAW/TopSkyMSAW Coding Tool.xlsx
+++ b/_Shared Resources/TopSky/MSAW/TopSkyMSAW Coding Tool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATC Control\0 GitHub\Sector-Files\_Shared Resources\TopSky\MSAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC51CF03-E7D5-4E6D-AB32-0D5CD8C3F880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF937A2-3CD9-4776-A288-0EB21552AE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-1770" windowWidth="29040" windowHeight="16440" xr2:uid="{38210610-A239-4B7F-93EB-C9D3CC6058FF}"/>
+    <workbookView xWindow="28680" yWindow="-1785" windowWidth="29040" windowHeight="16440" xr2:uid="{38210610-A239-4B7F-93EB-C9D3CC6058FF}"/>
   </bookViews>
   <sheets>
     <sheet name="MSAW" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>South Edge</t>
   </si>
@@ -43,33 +43,15 @@
     <t>West Edge</t>
   </si>
   <si>
-    <t>S011</t>
-  </si>
-  <si>
     <t>MSA Start</t>
   </si>
   <si>
-    <t>S012</t>
-  </si>
-  <si>
-    <t>S013</t>
-  </si>
-  <si>
-    <t>S014</t>
-  </si>
-  <si>
-    <t>S015</t>
-  </si>
-  <si>
-    <t>S016</t>
-  </si>
-  <si>
-    <t>S017</t>
-  </si>
-  <si>
     <t>S018</t>
   </si>
   <si>
+    <t>E013</t>
+  </si>
+  <si>
     <t>S019</t>
   </si>
   <si>
@@ -94,19 +76,40 @@
     <t>S026</t>
   </si>
   <si>
-    <t>E047</t>
-  </si>
-  <si>
-    <t>E043</t>
-  </si>
-  <si>
-    <t>E042</t>
-  </si>
-  <si>
-    <t>E045</t>
-  </si>
-  <si>
-    <t>E040</t>
+    <t>S027</t>
+  </si>
+  <si>
+    <t>S028</t>
+  </si>
+  <si>
+    <t>S029</t>
+  </si>
+  <si>
+    <t>S030</t>
+  </si>
+  <si>
+    <t>S031</t>
+  </si>
+  <si>
+    <t>S032</t>
+  </si>
+  <si>
+    <t>S033</t>
+  </si>
+  <si>
+    <t>S034</t>
+  </si>
+  <si>
+    <t>E012</t>
+  </si>
+  <si>
+    <t>E011</t>
+  </si>
+  <si>
+    <t>E014</t>
+  </si>
+  <si>
+    <t>E015</t>
   </si>
 </sst>
 </file>
@@ -471,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A78920B-173E-4272-A085-64BC10408654}">
-  <dimension ref="A2:V19"/>
+  <dimension ref="A2:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A3" sqref="A3:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +485,7 @@
     <col min="1" max="1" width="59" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -490,783 +493,561 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:A7" si="0">"L:"&amp;D3&amp;".00.00:"&amp;E3&amp;".00.00:1:1:"&amp;C3&amp;":"&amp;F3&amp;"00:"&amp;G3&amp;"00:"&amp;H3&amp;"00:"&amp;I3&amp;"00:"&amp;J3&amp;"00:"&amp;K3&amp;"00:"&amp;L3&amp;"00:"&amp;M3&amp;"00:"&amp;N3&amp;"00:"&amp;O3&amp;"00:"&amp;P3&amp;"00:"&amp;Q3&amp;"00:"&amp;R3&amp;"00:"&amp;S3&amp;"00:"&amp;T3&amp;"00:"&amp;U3&amp;"00:"&amp;V3&amp;"00:"&amp;W3&amp;"00:"&amp;X3&amp;"00:"&amp;Y3&amp;"00"</f>
-        <v>L:S011.00.00:E047.00.00:1:1:9:1400:000:000:000:1400:000:000:000:1300:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S018.00.00:E013.00.00:1:1:15:2700:9000:9200:7200:5300:5200:5200:5200:5200:5100:5200:4700:5400:5300:5800:00:00:00:00:00</v>
       </c>
       <c r="C3">
         <f>COUNT(F3:AC3)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J3">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="O3">
+        <v>51</v>
+      </c>
+      <c r="P3">
+        <v>52</v>
+      </c>
+      <c r="Q3">
+        <v>47</v>
+      </c>
+      <c r="R3">
+        <v>54</v>
+      </c>
+      <c r="S3">
+        <v>53</v>
+      </c>
+      <c r="T3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:S012.00.00:E043.00.00:1:1:9:10100:000:000:000:1400:000:2100:000:1400:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S019.00.00:E013.00.00:1:1:15:2400:6000:8500:8000:5100:5100:5200:5300:5300:5100:6000:4800:4500:5100:7100:00:00:00:00:00</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C19" si="1">COUNT(F4:AC4)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
       <c r="F4">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J4">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="L4">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="O4">
+        <v>51</v>
+      </c>
+      <c r="P4">
+        <v>60</v>
+      </c>
+      <c r="Q4">
+        <v>48</v>
+      </c>
+      <c r="R4">
+        <v>45</v>
+      </c>
+      <c r="S4">
+        <v>51</v>
+      </c>
+      <c r="T4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:S013.00.00:E043.00.00:1:1:7:3900:7600:3500:000:000:3000:7200:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S020.00.00:E012.00.00:1:1:9:3800:7700:8200:7900:8300:9400:8000:5400:5400:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="K5">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="L5">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="M5">
+        <v>54</v>
+      </c>
+      <c r="N5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:S014.00.00:E042.00.00:1:1:14:3900:3900:7600:7600:3500:3500:11300:11300:3100:000:000:000:000:1300:00:00:00:00:00:00</v>
+        <v>L:S021.00.00:E011.00.00:1:1:8:7200:7600:9000:8500:8700:7100:5900:5400:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="G6">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="H6">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="I6">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J6">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="K6">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="L6">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>113</v>
-      </c>
-      <c r="N6">
-        <v>31</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>L:S015.00.00:E047.00.00:1:1:4:2500:11800:11300:3800:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S022.00.00:E013.00.00:1:1:8:3900:10800:10000:9800:8400:7900:7400:5800:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
       <c r="F7">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G7">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H7">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="I7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="J7">
+        <v>84</v>
+      </c>
+      <c r="K7">
+        <v>79</v>
+      </c>
+      <c r="L7">
+        <v>74</v>
+      </c>
+      <c r="M7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>"L:"&amp;D8&amp;".00.00:"&amp;E8&amp;".00.00:1:1:"&amp;C8&amp;":"&amp;F8&amp;"00:"&amp;G8&amp;"00:"&amp;H8&amp;"00:"&amp;I8&amp;"00:"&amp;J8&amp;"00:"&amp;K8&amp;"00:"&amp;L8&amp;"00:"&amp;M8&amp;"00:"&amp;N8&amp;"00:"&amp;O8&amp;"00:"&amp;P8&amp;"00:"&amp;Q8&amp;"00:"&amp;R8&amp;"00:"&amp;S8&amp;"00:"&amp;T8&amp;"00:"&amp;U8&amp;"00:"&amp;V8&amp;"00:"&amp;W8&amp;"00:"&amp;X8&amp;"00:"&amp;Y8&amp;"00"</f>
-        <v>L:S016.00.00:E045.00.00:1:1:11:1600:2300:2900:11800:11800:5300:000:000:000:1300:2400:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S023.00.00:E014.00.00:1:1:6:4500:8900:10100:10400:8100:7300:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="H8">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="I8">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="J8">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="K8">
-        <v>53</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>13</v>
-      </c>
-      <c r="P8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" ref="A9:A19" si="2">"L:"&amp;D9&amp;".00.00:"&amp;E9&amp;".00.00:1:1:"&amp;C9&amp;":"&amp;F9&amp;"00:"&amp;G9&amp;"00:"&amp;H9&amp;"00:"&amp;I9&amp;"00:"&amp;J9&amp;"00:"&amp;K9&amp;"00:"&amp;L9&amp;"00:"&amp;M9&amp;"00:"&amp;N9&amp;"00:"&amp;O9&amp;"00:"&amp;P9&amp;"00:"&amp;Q9&amp;"00:"&amp;R9&amp;"00:"&amp;S9&amp;"00:"&amp;T9&amp;"00:"&amp;U9&amp;"00:"&amp;V9&amp;"00:"&amp;W9&amp;"00:"&amp;X9&amp;"00:"&amp;Y9&amp;"00"</f>
-        <v>L:S017.00.00:E043.00.00:1:1:12:1300:3300:3800:2600:5600:5900:5200:1500:000:000:000:2400:00:00:00:00:00:00:00:00</v>
+        <v>L:S024.00.00:E014.00.00:1:1:6:3200:7200:10400:9700:7400:7100:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G9">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="H9">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="I9">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="J9">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="K9">
-        <v>59</v>
-      </c>
-      <c r="L9">
-        <v>52</v>
-      </c>
-      <c r="M9">
-        <v>15</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S018.00.00:E042.00.00:1:1:14:1300:1400:3800:4800:7100:7400:7400:5300:1500:000:000:000:000:2400:00:00:00:00:00:00</v>
+        <v>L:S025.00.00:E014.00.00:1:1:7:3200:8800:9300:7100:5400:5400:5800:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="H10">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="I10">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="J10">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="L10">
-        <v>74</v>
-      </c>
-      <c r="M10">
-        <v>53</v>
-      </c>
-      <c r="N10">
-        <v>15</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S019.00.00:E045.00.00:1:1:13:1300:4400:5800:8400:8200:7500:4300:000:000:000:000:000:2400:00:00:00:00:00:00:00</v>
+        <v>L:S026.00.00:E014.00.00:1:1:7:2100:8600:9200:7800:5200:5000:4800:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="H11">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="I11">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J11">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L11">
-        <v>43</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S020.00.00:E045.00.00:1:1:13:1300:3300:7300:10000:11000:7500:1400:000:000:000:000:000:2600:00:00:00:00:00:00:00</v>
+        <v>L:S027.00.00:E014.00.00:1:1:7:1900:5200:8700:7200:8100:4800:4400:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H12">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I12">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="J12">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="K12">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="L12">
-        <v>14</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S021.00.00:E045.00.00:1:1:14:1500:2800:5500:9800:9700:4700:000:000:000:000:000:000:9800:4000:00:00:00:00:00:00</v>
+        <v>L:S028.00.00:E015.00.00:1:1:6:4600:8100:7700:9800:7600:4500:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F13">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G13">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="H13">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="I13">
         <v>98</v>
       </c>
       <c r="J13">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="K13">
-        <v>47</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>98</v>
-      </c>
-      <c r="S13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S022.00.00:E045.00.00:1:1:14:2700:3300:5500:9800:8900:4700:000:000:000:000:000:000:12400:4000:00:00:00:00:00:00</v>
+        <v>L:S029.00.00:E014.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14">
-        <v>27</v>
-      </c>
-      <c r="G14">
-        <v>33</v>
-      </c>
-      <c r="H14">
-        <v>55</v>
-      </c>
-      <c r="I14">
-        <v>98</v>
-      </c>
-      <c r="J14">
-        <v>89</v>
-      </c>
-      <c r="K14">
-        <v>47</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>124</v>
-      </c>
-      <c r="S14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S023.00.00:E040.00.00:1:1:17:1400:000:000:4800:5700:5700:11100:8100:1500:000:000:000:000:000:000:000:4000:00:00:00</v>
+        <v>L:S030.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>48</v>
-      </c>
-      <c r="J15">
-        <v>57</v>
-      </c>
-      <c r="K15">
-        <v>57</v>
-      </c>
-      <c r="L15">
-        <v>111</v>
-      </c>
-      <c r="M15">
-        <v>81</v>
-      </c>
-      <c r="N15">
-        <v>15</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S024.00.00:E040.00.00:1:1:9:1400:1400:000:4800:4800:7400:11100:11100:1500:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S031.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16">
-        <v>14</v>
-      </c>
-      <c r="G16">
-        <v>14</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>48</v>
-      </c>
-      <c r="J16">
-        <v>48</v>
-      </c>
-      <c r="K16">
-        <v>74</v>
-      </c>
-      <c r="L16">
-        <v>111</v>
-      </c>
-      <c r="M16">
-        <v>111</v>
-      </c>
-      <c r="N16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S025.00.00:E043.00.00:1:1:5:1900:3000:7100:8800:8700:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S032.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17">
-        <v>19</v>
-      </c>
-      <c r="G17">
-        <v>30</v>
-      </c>
-      <c r="H17">
-        <v>71</v>
-      </c>
-      <c r="I17">
-        <v>88</v>
-      </c>
-      <c r="J17">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:S026.00.00:E043.00.00:1:1:5:1900:7100:7100:8800:8800:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S033.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18">
-        <v>19</v>
-      </c>
-      <c r="G18">
-        <v>71</v>
-      </c>
-      <c r="H18">
-        <v>71</v>
-      </c>
-      <c r="I18">
-        <v>88</v>
-      </c>
-      <c r="J18">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>L:.00.00:.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S034.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/_Shared Resources/TopSky/MSAW/TopSkyMSAW Coding Tool.xlsx
+++ b/_Shared Resources/TopSky/MSAW/TopSkyMSAW Coding Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATC Control\0 GitHub\Sector-Files\_Shared Resources\TopSky\MSAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF937A2-3CD9-4776-A288-0EB21552AE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76990D4-D5F6-42C1-BDD2-6A89E7883C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1785" windowWidth="29040" windowHeight="16440" xr2:uid="{38210610-A239-4B7F-93EB-C9D3CC6058FF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>South Edge</t>
   </si>
@@ -73,43 +73,52 @@
     <t>S025</t>
   </si>
   <si>
-    <t>S026</t>
-  </si>
-  <si>
-    <t>S027</t>
-  </si>
-  <si>
-    <t>S028</t>
-  </si>
-  <si>
-    <t>S029</t>
-  </si>
-  <si>
-    <t>S030</t>
-  </si>
-  <si>
-    <t>S031</t>
-  </si>
-  <si>
-    <t>S032</t>
-  </si>
-  <si>
-    <t>S033</t>
-  </si>
-  <si>
-    <t>S034</t>
-  </si>
-  <si>
     <t>E012</t>
   </si>
   <si>
     <t>E011</t>
   </si>
   <si>
-    <t>E014</t>
-  </si>
-  <si>
-    <t>E015</t>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>S010</t>
+  </si>
+  <si>
+    <t>S011</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
+    <t>S013</t>
+  </si>
+  <si>
+    <t>S014</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>S016</t>
+  </si>
+  <si>
+    <t>S017</t>
+  </si>
+  <si>
+    <t>W006</t>
   </si>
 </sst>
 </file>
@@ -474,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A78920B-173E-4272-A085-64BC10408654}">
-  <dimension ref="A2:T19"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A13"/>
+      <selection activeCell="A3" sqref="A3:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +494,26 @@
     <col min="1" max="1" width="59" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="str">
+        <f t="shared" ref="A1" si="0">"L:"&amp;D1&amp;".00.00:"&amp;E1&amp;".00.00:1:1:"&amp;C1&amp;":"&amp;F1&amp;"00:"&amp;G1&amp;"00:"&amp;H1&amp;"00:"&amp;I1&amp;"00:"&amp;J1&amp;"00:"&amp;K1&amp;"00:"&amp;L1&amp;"00:"&amp;M1&amp;"00:"&amp;N1&amp;"00:"&amp;O1&amp;"00:"&amp;P1&amp;"00:"&amp;Q1&amp;"00:"&amp;R1&amp;"00:"&amp;S1&amp;"00:"&amp;T1&amp;"00:"&amp;U1&amp;"00:"&amp;V1&amp;"00:"&amp;W1&amp;"00:"&amp;X1&amp;"00:"&amp;Y1&amp;"00"</f>
+        <v>L:S016.00.00:W006.00.00:1:1:1:3700:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C1">
+        <f t="shared" ref="C1" si="1">COUNT(F1:AC1)</f>
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -496,558 +524,734 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A7" si="0">"L:"&amp;D3&amp;".00.00:"&amp;E3&amp;".00.00:1:1:"&amp;C3&amp;":"&amp;F3&amp;"00:"&amp;G3&amp;"00:"&amp;H3&amp;"00:"&amp;I3&amp;"00:"&amp;J3&amp;"00:"&amp;K3&amp;"00:"&amp;L3&amp;"00:"&amp;M3&amp;"00:"&amp;N3&amp;"00:"&amp;O3&amp;"00:"&amp;P3&amp;"00:"&amp;Q3&amp;"00:"&amp;R3&amp;"00:"&amp;S3&amp;"00:"&amp;T3&amp;"00:"&amp;U3&amp;"00:"&amp;V3&amp;"00:"&amp;W3&amp;"00:"&amp;X3&amp;"00:"&amp;Y3&amp;"00"</f>
-        <v>L:S018.00.00:E013.00.00:1:1:15:2700:9000:9200:7200:5300:5200:5200:5200:5200:5100:5200:4700:5400:5300:5800:00:00:00:00:00</v>
+        <f t="shared" ref="A3:A7" si="2">"L:"&amp;D3&amp;".00.00:"&amp;E3&amp;".00.00:1:1:"&amp;C3&amp;":"&amp;F3&amp;"00:"&amp;G3&amp;"00:"&amp;H3&amp;"00:"&amp;I3&amp;"00:"&amp;J3&amp;"00:"&amp;K3&amp;"00:"&amp;L3&amp;"00:"&amp;M3&amp;"00:"&amp;N3&amp;"00:"&amp;O3&amp;"00:"&amp;P3&amp;"00:"&amp;Q3&amp;"00:"&amp;R3&amp;"00:"&amp;S3&amp;"00:"&amp;T3&amp;"00:"&amp;U3&amp;"00:"&amp;V3&amp;"00:"&amp;W3&amp;"00:"&amp;X3&amp;"00:"&amp;Y3&amp;"00"</f>
+        <v>L:S005.00.00:E011.00.00:1:1:4:2700:7500:7100:3600:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C3">
         <f>COUNT(F3:AC3)</f>
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>27</v>
       </c>
       <c r="G3">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H3">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I3">
-        <v>72</v>
-      </c>
-      <c r="J3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S006.00.00:E011.00.00:1:1:6:1300:2400:3800:4700:4600:3900:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C19" si="3">COUNT(F4:AC4)</f>
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>47</v>
+      </c>
+      <c r="J4">
+        <v>46</v>
+      </c>
+      <c r="K4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S007.00.00:E012.00.00:1:1:9:2300:3700:5000:5000:4900:5000:5800:5000:4100:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>49</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <v>58</v>
+      </c>
+      <c r="M5">
+        <v>50</v>
+      </c>
+      <c r="N5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S008.00.00:E012.00.00:1:1:10:1800:3900:5300:5700:5200:3900:7500:4900:4700:4400:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>39</v>
+      </c>
+      <c r="H6">
         <v>53</v>
       </c>
-      <c r="K3">
+      <c r="I6">
+        <v>57</v>
+      </c>
+      <c r="J6">
         <v>52</v>
       </c>
-      <c r="L3">
-        <v>52</v>
-      </c>
-      <c r="M3">
-        <v>52</v>
-      </c>
-      <c r="N3">
-        <v>52</v>
-      </c>
-      <c r="O3">
-        <v>51</v>
-      </c>
-      <c r="P3">
-        <v>52</v>
-      </c>
-      <c r="Q3">
+      <c r="K6">
+        <v>39</v>
+      </c>
+      <c r="L6">
+        <v>75</v>
+      </c>
+      <c r="M6">
+        <v>49</v>
+      </c>
+      <c r="N6">
         <v>47</v>
       </c>
-      <c r="R3">
-        <v>54</v>
-      </c>
-      <c r="S3">
-        <v>53</v>
-      </c>
-      <c r="T3">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>L:S019.00.00:E013.00.00:1:1:15:2400:6000:8500:8000:5100:5100:5200:5300:5300:5100:6000:4800:4500:5100:7100:00:00:00:00:00</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C19" si="1">COUNT(F4:AC4)</f>
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>24</v>
-      </c>
-      <c r="G4">
-        <v>60</v>
-      </c>
-      <c r="H4">
-        <v>85</v>
-      </c>
-      <c r="I4">
-        <v>80</v>
-      </c>
-      <c r="J4">
-        <v>51</v>
-      </c>
-      <c r="K4">
-        <v>51</v>
-      </c>
-      <c r="L4">
-        <v>52</v>
-      </c>
-      <c r="M4">
-        <v>53</v>
-      </c>
-      <c r="N4">
-        <v>53</v>
-      </c>
-      <c r="O4">
-        <v>51</v>
-      </c>
-      <c r="P4">
-        <v>60</v>
-      </c>
-      <c r="Q4">
-        <v>48</v>
-      </c>
-      <c r="R4">
-        <v>45</v>
-      </c>
-      <c r="S4">
-        <v>51</v>
-      </c>
-      <c r="T4">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>L:S020.00.00:E012.00.00:1:1:9:3800:7700:8200:7900:8300:9400:8000:5400:5400:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
+      <c r="O6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L:S009.00.00:E013.00.00:1:1:9:4000:5000:7300:5600:4700:5400:5300:4800:4800:00:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>38</v>
-      </c>
-      <c r="G5">
-        <v>77</v>
-      </c>
-      <c r="H5">
-        <v>82</v>
-      </c>
-      <c r="I5">
-        <v>79</v>
-      </c>
-      <c r="J5">
-        <v>83</v>
-      </c>
-      <c r="K5">
-        <v>94</v>
-      </c>
-      <c r="L5">
-        <v>80</v>
-      </c>
-      <c r="M5">
-        <v>54</v>
-      </c>
-      <c r="N5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>L:S021.00.00:E011.00.00:1:1:8:7200:7600:9000:8500:8700:7100:5900:5400:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>72</v>
-      </c>
-      <c r="G6">
-        <v>76</v>
-      </c>
-      <c r="H6">
-        <v>90</v>
-      </c>
-      <c r="I6">
-        <v>85</v>
-      </c>
-      <c r="J6">
-        <v>87</v>
-      </c>
-      <c r="K6">
-        <v>71</v>
-      </c>
-      <c r="L6">
-        <v>59</v>
-      </c>
-      <c r="M6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>L:S022.00.00:E013.00.00:1:1:8:3900:10800:10000:9800:8400:7900:7400:5800:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="I7">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="J7">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="L7">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="M7">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="N7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>"L:"&amp;D8&amp;".00.00:"&amp;E8&amp;".00.00:1:1:"&amp;C8&amp;":"&amp;F8&amp;"00:"&amp;G8&amp;"00:"&amp;H8&amp;"00:"&amp;I8&amp;"00:"&amp;J8&amp;"00:"&amp;K8&amp;"00:"&amp;L8&amp;"00:"&amp;M8&amp;"00:"&amp;N8&amp;"00:"&amp;O8&amp;"00:"&amp;P8&amp;"00:"&amp;Q8&amp;"00:"&amp;R8&amp;"00:"&amp;S8&amp;"00:"&amp;T8&amp;"00:"&amp;U8&amp;"00:"&amp;V8&amp;"00:"&amp;W8&amp;"00:"&amp;X8&amp;"00:"&amp;Y8&amp;"00"</f>
-        <v>L:S023.00.00:E014.00.00:1:1:6:4500:8900:10100:10400:8100:7300:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <v>L:S010.00.00:E012.00.00:1:1:12:1400:2200:7100:7500:5700:5900:5900:5700:5200:5200:5200:5400:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>71</v>
+      </c>
+      <c r="I8">
+        <v>75</v>
+      </c>
+      <c r="J8">
+        <v>57</v>
+      </c>
+      <c r="K8">
+        <v>59</v>
+      </c>
+      <c r="L8">
+        <v>59</v>
+      </c>
+      <c r="M8">
+        <v>57</v>
+      </c>
+      <c r="N8">
+        <v>52</v>
+      </c>
+      <c r="O8">
+        <v>52</v>
+      </c>
+      <c r="P8">
+        <v>52</v>
+      </c>
+      <c r="Q8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="str">
+        <f t="shared" ref="A9:A19" si="4">"L:"&amp;D9&amp;".00.00:"&amp;E9&amp;".00.00:1:1:"&amp;C9&amp;":"&amp;F9&amp;"00:"&amp;G9&amp;"00:"&amp;H9&amp;"00:"&amp;I9&amp;"00:"&amp;J9&amp;"00:"&amp;K9&amp;"00:"&amp;L9&amp;"00:"&amp;M9&amp;"00:"&amp;N9&amp;"00:"&amp;O9&amp;"00:"&amp;P9&amp;"00:"&amp;Q9&amp;"00:"&amp;R9&amp;"00:"&amp;S9&amp;"00:"&amp;T9&amp;"00:"&amp;U9&amp;"00:"&amp;V9&amp;"00:"&amp;W9&amp;"00:"&amp;X9&amp;"00:"&amp;Y9&amp;"00"</f>
+        <v>L:S011.00.00:E013.00.00:1:1:12:2200:9200:8900:8000:7200:6000:7100:5900:5000:5000:5500:5900:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>92</v>
+      </c>
+      <c r="H9">
+        <v>89</v>
+      </c>
+      <c r="I9">
+        <v>80</v>
+      </c>
+      <c r="J9">
+        <v>72</v>
+      </c>
+      <c r="K9">
+        <v>60</v>
+      </c>
+      <c r="L9">
+        <v>71</v>
+      </c>
+      <c r="M9">
+        <v>59</v>
+      </c>
+      <c r="N9">
+        <v>50</v>
+      </c>
+      <c r="O9">
+        <v>50</v>
+      </c>
+      <c r="P9">
+        <v>55</v>
+      </c>
+      <c r="Q9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>L:S012.00.00:E013.00.00:1:1:12:2500:10500:9400:8500:8300:7300:7300:5800:5100:5500:7200:7400:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>105</v>
+      </c>
+      <c r="H10">
+        <v>94</v>
+      </c>
+      <c r="I10">
+        <v>85</v>
+      </c>
+      <c r="J10">
+        <v>83</v>
+      </c>
+      <c r="K10">
+        <v>73</v>
+      </c>
+      <c r="L10">
+        <v>73</v>
+      </c>
+      <c r="M10">
+        <v>58</v>
+      </c>
+      <c r="N10">
+        <v>51</v>
+      </c>
+      <c r="O10">
+        <v>55</v>
+      </c>
+      <c r="P10">
+        <v>72</v>
+      </c>
+      <c r="Q10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>L:S013.00.00:E012.00.00:1:1:12:1600:7500:10800:10900:8700:8000:7800:7600:6000:5200:7100:7700:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>75</v>
+      </c>
+      <c r="H11">
+        <v>108</v>
+      </c>
+      <c r="I11">
+        <v>109</v>
+      </c>
+      <c r="J11">
+        <v>87</v>
+      </c>
+      <c r="K11">
+        <v>80</v>
+      </c>
+      <c r="L11">
+        <v>78</v>
+      </c>
+      <c r="M11">
+        <v>76</v>
+      </c>
+      <c r="N11">
+        <v>60</v>
+      </c>
+      <c r="O11">
+        <v>52</v>
+      </c>
+      <c r="P11">
+        <v>71</v>
+      </c>
+      <c r="Q11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>L:S014.00.00:E012.00.00:1:1:10:8300:10500:10300:9400:8300:7800:7700:7500:6000:5500:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="F8">
-        <v>45</v>
-      </c>
-      <c r="G8">
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>83</v>
+      </c>
+      <c r="G12">
+        <v>105</v>
+      </c>
+      <c r="H12">
+        <v>103</v>
+      </c>
+      <c r="I12">
+        <v>94</v>
+      </c>
+      <c r="J12">
+        <v>83</v>
+      </c>
+      <c r="K12">
+        <v>78</v>
+      </c>
+      <c r="L12">
+        <v>77</v>
+      </c>
+      <c r="M12">
+        <v>75</v>
+      </c>
+      <c r="N12">
+        <v>60</v>
+      </c>
+      <c r="O12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>L:S015.00.00:E012.00.00:1:1:10:7300:10200:8900:8700:8000:8000:7400:7100:5800:5400:00:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>73</v>
+      </c>
+      <c r="G13">
+        <v>102</v>
+      </c>
+      <c r="H13">
         <v>89</v>
       </c>
-      <c r="H8">
-        <v>101</v>
-      </c>
-      <c r="I8">
-        <v>104</v>
-      </c>
-      <c r="J8">
-        <v>81</v>
-      </c>
-      <c r="K8">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="str">
-        <f t="shared" ref="A9:A19" si="2">"L:"&amp;D9&amp;".00.00:"&amp;E9&amp;".00.00:1:1:"&amp;C9&amp;":"&amp;F9&amp;"00:"&amp;G9&amp;"00:"&amp;H9&amp;"00:"&amp;I9&amp;"00:"&amp;J9&amp;"00:"&amp;K9&amp;"00:"&amp;L9&amp;"00:"&amp;M9&amp;"00:"&amp;N9&amp;"00:"&amp;O9&amp;"00:"&amp;P9&amp;"00:"&amp;Q9&amp;"00:"&amp;R9&amp;"00:"&amp;S9&amp;"00:"&amp;T9&amp;"00:"&amp;U9&amp;"00:"&amp;V9&amp;"00:"&amp;W9&amp;"00:"&amp;X9&amp;"00:"&amp;Y9&amp;"00"</f>
-        <v>L:S024.00.00:E014.00.00:1:1:6:3200:7200:10400:9700:7400:7100:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9">
-        <v>32</v>
-      </c>
-      <c r="G9">
+      <c r="I13">
+        <v>87</v>
+      </c>
+      <c r="J13">
+        <v>80</v>
+      </c>
+      <c r="K13">
+        <v>80</v>
+      </c>
+      <c r="L13">
+        <v>74</v>
+      </c>
+      <c r="M13">
+        <v>71</v>
+      </c>
+      <c r="N13">
+        <v>58</v>
+      </c>
+      <c r="O13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>L:S016.00.00:E011.00.00:1:1:11:1700:5600:9900:8600:5900:7400:7100:6000:5800:5900:5200:00:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>56</v>
+      </c>
+      <c r="H14">
+        <v>99</v>
+      </c>
+      <c r="I14">
+        <v>86</v>
+      </c>
+      <c r="J14">
+        <v>59</v>
+      </c>
+      <c r="K14">
+        <v>74</v>
+      </c>
+      <c r="L14">
+        <v>71</v>
+      </c>
+      <c r="M14">
+        <v>60</v>
+      </c>
+      <c r="N14">
+        <v>58</v>
+      </c>
+      <c r="O14">
+        <v>59</v>
+      </c>
+      <c r="P14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>L:S017.00.00:E011.00.00:1:1:12:2700:8700:7500:7200:5700:5500:5400:5500:5400:5300:5100:5800:00:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>27</v>
+      </c>
+      <c r="G15">
+        <v>87</v>
+      </c>
+      <c r="H15">
+        <v>75</v>
+      </c>
+      <c r="I15">
         <v>72</v>
       </c>
-      <c r="H9">
-        <v>104</v>
-      </c>
-      <c r="I9">
-        <v>97</v>
-      </c>
-      <c r="J9">
-        <v>74</v>
-      </c>
-      <c r="K9">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>L:S025.00.00:E014.00.00:1:1:7:3200:8800:9300:7100:5400:5400:5800:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10">
-        <v>32</v>
-      </c>
-      <c r="G10">
-        <v>88</v>
-      </c>
-      <c r="H10">
-        <v>93</v>
-      </c>
-      <c r="I10">
-        <v>71</v>
-      </c>
-      <c r="J10">
+      <c r="J15">
+        <v>57</v>
+      </c>
+      <c r="K15">
+        <v>55</v>
+      </c>
+      <c r="L15">
         <v>54</v>
       </c>
-      <c r="K10">
+      <c r="M15">
+        <v>55</v>
+      </c>
+      <c r="N15">
         <v>54</v>
       </c>
-      <c r="L10">
+      <c r="O15">
+        <v>53</v>
+      </c>
+      <c r="P15">
+        <v>51</v>
+      </c>
+      <c r="Q15">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>L:S026.00.00:E014.00.00:1:1:7:2100:8600:9200:7800:5200:5000:4800:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11">
-        <v>21</v>
-      </c>
-      <c r="G11">
-        <v>86</v>
-      </c>
-      <c r="H11">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>L:S018.00.00:E011.00.00:1:1:13:2700:9000:9200:7200:5300:5200:5200:5200:5200:5100:5200:4700:5400:00:00:00:00:00:00:00</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>27</v>
+      </c>
+      <c r="G16">
+        <v>90</v>
+      </c>
+      <c r="H16">
         <v>92</v>
       </c>
-      <c r="I11">
-        <v>78</v>
-      </c>
-      <c r="J11">
+      <c r="I16">
+        <v>72</v>
+      </c>
+      <c r="J16">
+        <v>53</v>
+      </c>
+      <c r="K16">
         <v>52</v>
       </c>
-      <c r="K11">
-        <v>50</v>
-      </c>
-      <c r="L11">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>L:S027.00.00:E014.00.00:1:1:7:1900:5200:8700:7200:8100:4800:4400:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12">
-        <v>19</v>
-      </c>
-      <c r="G12">
+      <c r="L16">
         <v>52</v>
       </c>
-      <c r="H12">
-        <v>87</v>
-      </c>
-      <c r="I12">
-        <v>72</v>
-      </c>
-      <c r="J12">
-        <v>81</v>
-      </c>
-      <c r="K12">
-        <v>48</v>
-      </c>
-      <c r="L12">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>L:S028.00.00:E015.00.00:1:1:6:4600:8100:7700:9800:7600:4500:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13">
-        <v>46</v>
-      </c>
-      <c r="G13">
-        <v>81</v>
-      </c>
-      <c r="H13">
-        <v>77</v>
-      </c>
-      <c r="I13">
-        <v>98</v>
-      </c>
-      <c r="J13">
-        <v>76</v>
-      </c>
-      <c r="K13">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>L:S029.00.00:E014.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>L:S030.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>L:S031.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
+      <c r="M16">
+        <v>52</v>
+      </c>
+      <c r="N16">
+        <v>52</v>
+      </c>
+      <c r="O16">
+        <v>51</v>
+      </c>
+      <c r="P16">
+        <v>52</v>
+      </c>
+      <c r="Q16">
+        <v>47</v>
+      </c>
+      <c r="R16">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>L:S032.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <f t="shared" si="4"/>
+        <v>L:S019.00.00:E011.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>L:S033.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <f t="shared" si="4"/>
+        <v>L:S020.00.00:E012.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>L:S034.00.00:E013.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
+        <f t="shared" si="4"/>
+        <v>L:S021.00.00:E012.00.00:1:1:0:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00:00</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
